--- a/CSE320-2020 Lab Grades.xlsx
+++ b/CSE320-2020 Lab Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Lab Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECA85BF-50CF-42A5-B158-40BE280EEECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01A1BFD-2486-471F-90D1-5BFDE3143849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-115" yWindow="-115" windowWidth="24697" windowHeight="13381" xr2:uid="{B5F92FE3-3D2D-404A-B840-6198D4744755}"/>
   </bookViews>
@@ -845,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -923,19 +923,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -943,30 +934,6 @@
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1001,15 +968,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1029,6 +987,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1348,7 +1360,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
@@ -1363,16 +1375,16 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="23"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
       <c r="L1" s="24"/>
       <c r="M1" s="3"/>
     </row>
@@ -1380,16 +1392,16 @@
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="23"/>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
       <c r="L2" s="24"/>
       <c r="M2" s="3"/>
     </row>
@@ -1397,14 +1409,14 @@
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
       <c r="L3" s="11"/>
       <c r="M3" s="3"/>
     </row>
@@ -1414,12 +1426,12 @@
       <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="14"/>
@@ -1437,12 +1449,12 @@
       <c r="C5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
@@ -1472,16 +1484,16 @@
     <row r="7" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="64" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="7" t="s">
@@ -1501,10 +1513,10 @@
     <row r="8" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="49"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="27" t="s">
         <v>12</v>
       </c>
@@ -1535,7 +1547,7 @@
       <c r="C9" s="26">
         <v>1</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="35">
         <v>135050024</v>
       </c>
       <c r="E9" s="28" t="s">
@@ -1544,9 +1556,9 @@
       <c r="F9" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
       <c r="J9" s="29"/>
       <c r="K9" s="25"/>
       <c r="L9" s="30"/>
@@ -1564,7 +1576,7 @@
       <c r="C10" s="8">
         <v>2</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>145050003</v>
       </c>
       <c r="E10" s="31" t="s">
@@ -1573,9 +1585,9 @@
       <c r="F10" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="32"/>
@@ -1593,7 +1605,7 @@
       <c r="C11" s="8">
         <v>3</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="36">
         <v>155050005</v>
       </c>
       <c r="E11" s="31" t="s">
@@ -1602,9 +1614,9 @@
       <c r="F11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9">
+      <c r="G11" s="71"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72">
         <v>60</v>
       </c>
       <c r="J11" s="9"/>
@@ -1624,7 +1636,7 @@
       <c r="C12" s="8">
         <v>4</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="36">
         <v>155050006</v>
       </c>
       <c r="E12" s="31" t="s">
@@ -1633,11 +1645,11 @@
       <c r="F12" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="71">
         <v>85</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="32"/>
@@ -1655,7 +1667,7 @@
       <c r="C13" s="8">
         <v>5</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="36">
         <v>155050024</v>
       </c>
       <c r="E13" s="31" t="s">
@@ -1664,9 +1676,9 @@
       <c r="F13" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="32"/>
@@ -1684,7 +1696,7 @@
       <c r="C14" s="8">
         <v>6</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="36">
         <v>155050025</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -1693,9 +1705,9 @@
       <c r="F14" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="32"/>
@@ -1713,7 +1725,7 @@
       <c r="C15" s="8">
         <v>7</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="36">
         <v>155050032</v>
       </c>
       <c r="E15" s="31" t="s">
@@ -1722,11 +1734,11 @@
       <c r="F15" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="71">
         <v>85</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="32"/>
@@ -1744,7 +1756,7 @@
       <c r="C16" s="8">
         <v>8</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="36">
         <v>155050034</v>
       </c>
       <c r="E16" s="31" t="s">
@@ -1753,11 +1765,11 @@
       <c r="F16" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="71">
         <v>85</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="32"/>
@@ -1775,7 +1787,7 @@
       <c r="C17" s="8">
         <v>9</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="36">
         <v>165050014</v>
       </c>
       <c r="E17" s="31" t="s">
@@ -1784,13 +1796,13 @@
       <c r="F17" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="71">
         <v>100</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="72">
         <v>100</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="72">
         <v>100</v>
       </c>
       <c r="J17" s="9"/>
@@ -1810,7 +1822,7 @@
       <c r="C18" s="8">
         <v>10</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="36">
         <v>175050002</v>
       </c>
       <c r="E18" s="31" t="s">
@@ -1819,11 +1831,11 @@
       <c r="F18" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="71">
         <v>100</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9">
+      <c r="H18" s="72"/>
+      <c r="I18" s="72">
         <v>100</v>
       </c>
       <c r="J18" s="9"/>
@@ -1840,30 +1852,30 @@
       <c r="B19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="50">
+      <c r="C19" s="39">
         <v>11</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="40">
         <v>195050804</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="73">
         <v>85</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="74">
         <v>100</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="74">
         <v>100</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="41"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="38"/>
       <c r="M19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1875,24 +1887,24 @@
       <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="68">
+      <c r="C20" s="54">
         <v>1</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="50">
         <v>125030018</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="56"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="45"/>
       <c r="M20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1904,24 +1916,24 @@
       <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="69">
+      <c r="C21" s="55">
         <v>2</v>
       </c>
-      <c r="D21" s="73">
+      <c r="D21" s="59">
         <v>125030021</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="57"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="46"/>
       <c r="M21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1933,30 +1945,30 @@
       <c r="B22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="70">
+      <c r="C22" s="56">
         <v>3</v>
       </c>
-      <c r="D22" s="74">
+      <c r="D22" s="60">
         <v>155030038</v>
       </c>
-      <c r="E22" s="72" t="s">
+      <c r="E22" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="66">
+      <c r="G22" s="77">
         <v>70</v>
       </c>
-      <c r="H22" s="67">
+      <c r="H22" s="78">
         <v>100</v>
       </c>
-      <c r="I22" s="67">
+      <c r="I22" s="78">
         <v>80</v>
       </c>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="59"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="48"/>
       <c r="M22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2090,25 +2102,25 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D3:K3"/>
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/CSE320-2020 Lab Grades.xlsx
+++ b/CSE320-2020 Lab Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Lab Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01A1BFD-2486-471F-90D1-5BFDE3143849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FD7781-47A7-4DA0-A001-F347B22EEB24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-115" yWindow="-115" windowWidth="24697" windowHeight="13381" xr2:uid="{B5F92FE3-3D2D-404A-B840-6198D4744755}"/>
+    <workbookView xWindow="3326" yWindow="3326" windowWidth="18350" windowHeight="9558" xr2:uid="{B5F92FE3-3D2D-404A-B840-6198D4744755}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -33,42 +33,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="52">
   <si>
-    <t>Bölümü :</t>
-  </si>
-  <si>
-    <t>Öğretim Yılı :</t>
-  </si>
-  <si>
     <t xml:space="preserve">2019 - 2020 </t>
   </si>
   <si>
-    <t>Ders Adı :</t>
-  </si>
-  <si>
-    <t>Dönemi :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahar </t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
-    <t>Öğrenci No</t>
-  </si>
-  <si>
-    <t>Adı</t>
-  </si>
-  <si>
-    <t>Soyadı</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>LAB NOTLARI</t>
-  </si>
-  <si>
     <t>Lab1</t>
   </si>
   <si>
@@ -87,15 +60,6 @@
     <t>Lab6</t>
   </si>
   <si>
-    <t>T.C. TOROS ÜNİVERSİTESİ MÜHENDİSLİK FAKÜLTESİ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50506019 CSE320 JAVA PROGRAMLAMA DİLİ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BİLGİSAYAR VE YAZILIM MÜHENDİSLİĞİ </t>
-  </si>
-  <si>
     <t xml:space="preserve">MUSTAFA </t>
   </si>
   <si>
@@ -187,6 +151,42 @@
   </si>
   <si>
     <t>ZEYTUN</t>
+  </si>
+  <si>
+    <t>T.C. TOROS UNIVERSITY FACULTY OF ENGINEERING</t>
+  </si>
+  <si>
+    <t>LAB GRADES</t>
+  </si>
+  <si>
+    <t>Department :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPUTER AND SOFTWARE ENGINEERING </t>
+  </si>
+  <si>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>50506019 CSE320 JAVA PROGRAMMING LANGUAGE</t>
+  </si>
+  <si>
+    <t>Academic Year :</t>
+  </si>
+  <si>
+    <t>Term :</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Student No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
   </si>
 </sst>
 </file>
@@ -989,6 +989,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1001,47 +1040,8 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1359,13 +1359,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3404B6-4B7B-45D4-A555-61E65AB190A3}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.77734375" customWidth="1"/>
+    <col min="3" max="4" width="9.77734375" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" customWidth="1"/>
     <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
@@ -1375,16 +1375,16 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="23"/>
-      <c r="D1" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
+      <c r="D1" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
       <c r="L1" s="24"/>
       <c r="M1" s="3"/>
     </row>
@@ -1392,16 +1392,16 @@
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="23"/>
-      <c r="D2" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
+      <c r="D2" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
       <c r="L2" s="24"/>
       <c r="M2" s="3"/>
     </row>
@@ -1409,14 +1409,14 @@
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
       <c r="L3" s="11"/>
       <c r="M3" s="3"/>
     </row>
@@ -1424,22 +1424,22 @@
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
+        <v>42</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1"/>
     </row>
@@ -1447,22 +1447,22 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
+        <v>44</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="18" t="s">
-        <v>4</v>
+      <c r="K5" s="78" t="s">
+        <v>47</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="M5" s="4"/>
     </row>
@@ -1484,26 +1484,26 @@
     <row r="7" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="64" t="s">
-        <v>9</v>
+      <c r="C7" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>51</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -1513,36 +1513,36 @@
     <row r="8" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="64"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="77"/>
       <c r="G8" s="27" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C9" s="26">
         <v>1</v>
@@ -1551,27 +1551,27 @@
         <v>135050024</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
+        <v>10</v>
+      </c>
+      <c r="G9" s="61"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
       <c r="J9" s="29"/>
       <c r="K9" s="25"/>
       <c r="L9" s="30"/>
       <c r="M9" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C10" s="8">
         <v>2</v>
@@ -1580,27 +1580,27 @@
         <v>145050003</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="71"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
+        <v>12</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="32"/>
       <c r="M10" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C11" s="8">
         <v>3</v>
@@ -1609,29 +1609,29 @@
         <v>155050005</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72">
+        <v>14</v>
+      </c>
+      <c r="G11" s="63"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64">
         <v>60</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="32"/>
       <c r="M11" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C12" s="8">
         <v>4</v>
@@ -1640,29 +1640,29 @@
         <v>155050006</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="71">
+        <v>16</v>
+      </c>
+      <c r="G12" s="63">
         <v>85</v>
       </c>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="32"/>
       <c r="M12" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C13" s="8">
         <v>5</v>
@@ -1671,27 +1671,27 @@
         <v>155050024</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
+        <v>18</v>
+      </c>
+      <c r="G13" s="63"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="32"/>
       <c r="M13" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C14" s="8">
         <v>6</v>
@@ -1700,27 +1700,27 @@
         <v>155050025</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
+        <v>20</v>
+      </c>
+      <c r="G14" s="63"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="32"/>
       <c r="M14" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C15" s="8">
         <v>7</v>
@@ -1729,29 +1729,29 @@
         <v>155050032</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="71">
+        <v>22</v>
+      </c>
+      <c r="G15" s="63">
         <v>85</v>
       </c>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="32"/>
       <c r="M15" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C16" s="8">
         <v>8</v>
@@ -1760,29 +1760,29 @@
         <v>155050034</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="71">
+        <v>24</v>
+      </c>
+      <c r="G16" s="63">
         <v>85</v>
       </c>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="32"/>
       <c r="M16" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C17" s="8">
         <v>9</v>
@@ -1791,33 +1791,33 @@
         <v>165050014</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="71">
+        <v>26</v>
+      </c>
+      <c r="G17" s="63">
         <v>100</v>
       </c>
-      <c r="H17" s="72">
+      <c r="H17" s="64">
         <v>100</v>
       </c>
-      <c r="I17" s="72">
+      <c r="I17" s="64">
         <v>100</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="32"/>
       <c r="M17" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C18" s="8">
         <v>10</v>
@@ -1826,31 +1826,31 @@
         <v>175050002</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="71">
+        <v>28</v>
+      </c>
+      <c r="G18" s="63">
         <v>100</v>
       </c>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72">
+      <c r="H18" s="64"/>
+      <c r="I18" s="64">
         <v>100</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="32"/>
       <c r="M18" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C19" s="39">
         <v>11</v>
@@ -1859,33 +1859,33 @@
         <v>195050804</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="73">
+        <v>30</v>
+      </c>
+      <c r="G19" s="65">
         <v>85</v>
       </c>
-      <c r="H19" s="74">
+      <c r="H19" s="66">
         <v>100</v>
       </c>
-      <c r="I19" s="74">
+      <c r="I19" s="66">
         <v>100</v>
       </c>
       <c r="J19" s="37"/>
       <c r="K19" s="37"/>
       <c r="L19" s="38"/>
       <c r="M19" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C20" s="54">
         <v>1</v>
@@ -1894,27 +1894,27 @@
         <v>125030018</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
+        <v>37</v>
+      </c>
+      <c r="G20" s="67"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
       <c r="L20" s="45"/>
       <c r="M20" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C21" s="55">
         <v>2</v>
@@ -1923,27 +1923,27 @@
         <v>125030021</v>
       </c>
       <c r="E21" s="57" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F21" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="71"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
+        <v>39</v>
+      </c>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
       <c r="J21" s="43"/>
       <c r="K21" s="43"/>
       <c r="L21" s="46"/>
       <c r="M21" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C22" s="56">
         <v>3</v>
@@ -1952,146 +1952,146 @@
         <v>155030038</v>
       </c>
       <c r="E22" s="58" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F22" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="77">
+        <v>35</v>
+      </c>
+      <c r="G22" s="69">
         <v>70</v>
       </c>
-      <c r="H22" s="78">
+      <c r="H22" s="70">
         <v>100</v>
       </c>
-      <c r="I22" s="78">
+      <c r="I22" s="70">
         <v>80</v>
       </c>
       <c r="J22" s="47"/>
       <c r="K22" s="47"/>
       <c r="L22" s="48"/>
       <c r="M22" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2102,25 +2102,25 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D3:K3"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
